--- a/public/assets/updated-excels/pj_1.xlsx
+++ b/public/assets/updated-excels/pj_1.xlsx
@@ -516,7 +516,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:X4"/>
+  <dimension ref="A1:X3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="C3" sqref="C3"/>
@@ -627,20 +627,6 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" t="s">
         <v>28</v>
       </c>
     </row>
